--- a/tests/resources/milestones_test_master_4_2019.xlsx
+++ b/tests/resources/milestones_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t xml:space="preserve">DFT ID Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
   </si>
   <si>
     <t xml:space="preserve">Approval MM1</t>
@@ -244,15 +262,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FFFC2525"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFC2525"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -298,12 +317,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,7 +424,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,74 +486,74 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
@@ -542,31 +565,31 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <v>43900</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>42305</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <v>43900</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>42305</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -578,130 +601,130 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5" t="n">
         <v>44095</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>41537</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>39081</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>41942</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>42308</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5" t="n">
         <v>44095</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>41537</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>39081</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>41942</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>42308</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0</v>
@@ -722,139 +745,139 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <v>43815</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <v>41153</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>38504</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <v>41789</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5" t="n">
         <v>41106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="B22" s="5" t="n">
         <v>43815</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="5" t="n">
         <v>41153</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>41548</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <v>38504</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="5" t="n">
         <v>41789</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <v>41106</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>0</v>
@@ -875,46 +898,46 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2019.xlsx
+++ b/tests/resources/milestones_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -191,6 +191,27 @@
   </si>
   <si>
     <t xml:space="preserve">Assurance MM1 Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assurance MM1 DCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bright Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duck Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon Pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple</t>
   </si>
   <si>
     <t xml:space="preserve">Project MM18</t>
@@ -424,7 +445,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -797,64 +818,66 @@
       <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>43815</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>41153</v>
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="5" t="n">
-        <v>38504</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>41789</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>41106</v>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>43815</v>
@@ -862,9 +885,7 @@
       <c r="C22" s="5" t="n">
         <v>41153</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>41548</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="5" t="n">
         <v>38504</v>
       </c>
@@ -877,71 +898,93 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>43815</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>41153</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>41548</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>38504</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>41789</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>41106</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>34</v>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2019.xlsx
+++ b/tests/resources/milestones_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -248,6 +248,36 @@
   </si>
   <si>
     <t xml:space="preserve">Green lumber fallacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline this quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline ALB/Programme milestones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline ALB/Programme cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline ALB/Programme benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline IPDC milestones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline IPDC cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline IPDC benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline HMT milestones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline HMT cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-baseline HMT benefits</t>
   </si>
 </sst>
 </file>
@@ -445,7 +475,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -984,7 +1014,86 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+    </row>
     <row r="1046639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2019.xlsx
+++ b/tests/resources/milestones_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">Re-baseline HMT benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPDC approval point</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,6 +393,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,9 +480,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1093,6 +1100,11 @@
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="1046639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2019.xlsx
+++ b/tests/resources/milestones_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -281,15 +281,40 @@
   </si>
   <si>
     <t xml:space="preserve">IPDC approval point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start of Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 Original Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 Forecast - Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 Variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM19 Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-809]DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -371,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,6 +422,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,9 +509,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1104,6 +1133,113 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="7" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C40" s="7" t="n">
+        <v>36527</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>36528</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>36529</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>36530</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>36531</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="7" t="n">
+        <v>36526</v>
+      </c>
+      <c r="C41" s="7" t="n">
+        <v>36527</v>
+      </c>
+      <c r="D41" s="7" t="n">
+        <v>36528</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>36529</v>
+      </c>
+      <c r="F41" s="7" t="n">
+        <v>36530</v>
+      </c>
+      <c r="G41" s="7" t="n">
+        <v>36531</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="1046639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2019.xlsx
+++ b/tests/resources/milestones_test_master_4_2019.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">DfT Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Aviation</t>
+    <t xml:space="preserve">AMIS</t>
   </si>
   <si>
     <t xml:space="preserve">Roads Places and Environment Group</t>
@@ -509,9 +509,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K35" activeCellId="0" sqref="K35"/>
+      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tests/resources/milestones_test_master_4_2019.xlsx
+++ b/tests/resources/milestones_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">Project MM19 Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project stage</t>
   </si>
 </sst>
 </file>
@@ -509,9 +512,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1240,6 +1243,11 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="1046639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2019.xlsx
+++ b/tests/resources/milestones_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -308,6 +308,24 @@
   </si>
   <si>
     <t xml:space="preserve">Project stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRO Schedule Confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amber/Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amber/Green</t>
   </si>
 </sst>
 </file>
@@ -512,9 +530,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1089,7 +1107,9 @@
       <c r="A31" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="0"/>
+      <c r="B31" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
     </row>
@@ -1248,6 +1268,29 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="1046639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2019.xlsx
+++ b/tests/resources/milestones_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -248,6 +248,48 @@
   </si>
   <si>
     <t xml:space="preserve">Green lumber fallacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start of Construction/build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 Original Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 Forecast - Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 Variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project MM20 Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43th generation Roman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pirate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material </t>
+  </si>
+  <si>
+    <t xml:space="preserve">listening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">streets</t>
   </si>
   <si>
     <t xml:space="preserve">Re-baseline this quarter</t>
@@ -530,9 +572,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1072,66 +1114,121 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="C27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="D28" s="3"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B29" s="7" t="n">
+        <v>44582</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>44583</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>44584</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>44585</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>44586</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B30" s="7" t="n">
+        <v>44583</v>
+      </c>
+      <c r="C30" s="7" t="n">
+        <v>44584</v>
+      </c>
+      <c r="D30" s="7" t="n">
+        <v>44585</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>44586</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>44587</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="D31" s="3"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="3"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -1139,7 +1236,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
@@ -1147,159 +1244,210 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
       <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="A37" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A38" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="7" t="n">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="7" t="n">
         <v>36526</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C47" s="7" t="n">
         <v>36527</v>
       </c>
-      <c r="D40" s="7" t="n">
+      <c r="D47" s="7" t="n">
         <v>36528</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E47" s="7" t="n">
         <v>36529</v>
       </c>
-      <c r="F40" s="7" t="n">
+      <c r="F47" s="7" t="n">
         <v>36530</v>
       </c>
-      <c r="G40" s="7" t="n">
+      <c r="G47" s="7" t="n">
         <v>36531</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="7" t="n">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="7" t="n">
         <v>36526</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C48" s="7" t="n">
         <v>36527</v>
       </c>
-      <c r="D41" s="7" t="n">
+      <c r="D48" s="7" t="n">
         <v>36528</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E48" s="7" t="n">
         <v>36529</v>
       </c>
-      <c r="F41" s="7" t="n">
+      <c r="F48" s="7" t="n">
         <v>36530</v>
       </c>
-      <c r="G41" s="7" t="n">
+      <c r="G48" s="7" t="n">
         <v>36531</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="1046639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1046640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1046641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1046642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1046643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1046644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1046645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="1046646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/milestones_test_master_4_2019.xlsx
+++ b/tests/resources/milestones_test_master_4_2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t xml:space="preserve">Amber/Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -572,9 +575,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+      <selection pane="bottomLeft" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1446,6 +1449,11 @@
       </c>
       <c r="G53" s="0" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="1046646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
